--- a/medicine/Psychotrope/Fine_et_marc_du_Bugey/Fine_et_marc_du_Bugey.xlsx
+++ b/medicine/Psychotrope/Fine_et_marc_du_Bugey/Fine_et_marc_du_Bugey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fine et le marc du Bugey sont respectivement une fine et un marc produits dans le Vignoble du Bugey.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traditionnellement, l'hiver, le passage de l'alambic ambulant permettait dans chaque village de distiller vin, marc, cerises, et autres fruits du verger[1].
-Depuis la loi de 1960, ce privilège de bouilleur de cru prit fin puisque ne pouvant plus se transmettre de père en fils. Face à cette interdiction, les producteurs bugistes s'organisèrent pour mettre en marché une production d'eau-de-vie de qualité. Ce qui permit au journal l'Ain Agricole de titrer en 1966 : « Premier de France : Le Marc du Bugey entre dans une ère nouvelle de son appellation et de sa réglementation ». En effet, à partir du 1er septembre 1970, les producteurs s'obligeaient à faire vieillir marc et fine « au moins 3 ans en récipients de bois avant d'être livré au consommateur. Une tradition qui devient une obligation[1]. ».
-La production de la fine du Bugey, sous cette appellation, date d'au moins 1987[2]. Les deux productions, la fine et le marc, sont respectivement des indications géographiques protégées depuis janvier 2015[3],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Traditionnellement, l'hiver, le passage de l'alambic ambulant permettait dans chaque village de distiller vin, marc, cerises, et autres fruits du verger.
+Depuis la loi de 1960, ce privilège de bouilleur de cru prit fin puisque ne pouvant plus se transmettre de père en fils. Face à cette interdiction, les producteurs bugistes s'organisèrent pour mettre en marché une production d'eau-de-vie de qualité. Ce qui permit au journal l'Ain Agricole de titrer en 1966 : « Premier de France : Le Marc du Bugey entre dans une ère nouvelle de son appellation et de sa réglementation ». En effet, à partir du 1er septembre 1970, les producteurs s'obligeaient à faire vieillir marc et fine « au moins 3 ans en récipients de bois avant d'être livré au consommateur. Une tradition qui devient une obligation. ».
+La production de la fine du Bugey, sous cette appellation, date d'au moins 1987. Les deux productions, la fine et le marc, sont respectivement des indications géographiques protégées depuis janvier 2015.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Zone de production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Département de l’Ain
 Abergement-de-Varey, Ambérieu-en-Bugey, Ambléon, Ambronay, Ambutrix, Andert-etCondon, Anglefort, Aranc, Arandas, Arbignieu, Argis, Armix, Artemare, Belley, Belmont, Bénonces, Béon, Bettant, Blyes, Bohas-Meyriat-Rignat, Bolozon, Boyeux-Saint-Jérôme, Brégnier-Cordon, Brénaz, Brens, Briord, La Burbanche, Ceignes, Cerdon, Certines, Ceyzeriat, Ceyzérieu, Chaley, Challes-la-Montagne, Champagne-en-Valromey, Chanay, Charvornay, Château-Gaillard, Chazey-Bons, Chazey-sur-Ain, Cheignieu-la-Balme, Cize, Cleyzieu, Colomieu, Conand, Contrevoz, Conzieu, Corbonod, Corlier, Corvessiat, Cressin-Rochefort, Culoz, Cuzieu, Douvres, Druillat, Evosge, Flaxieu, Grand-Corent, Groslée, Hautecourt-Romaneche, Hostiaz, Hotonnes, Innimont, Izenave, Izieu, Jasseron, Journans, Jujurieux, Labalme, Lagnieu, Lantenay, Lavours, Leyment, Leyssard, Lhôpital, Lhuis, Lochieu, Lompnas, Loyettes, Magnieu, Marchamp, Marignieu, Massignieu-de-Rives, Mérignat, Montagnat, Montagnieu, Murs-et-Gélinieux, Nattages, Neuville-sur-Ain, Nivollet-Montgriffon, Nurieux-Volognat, Oncieu, Ordonnaz, Parves, Peyrieu, Pollieu, Poncin, Pont-d’Ain, Premeyzel, Prémillieu, Pugieu, Ramasse, Révonnas, Rossillon, Saint-Alban, Saint-Benoît, Saint-Bois, Saint-Champ, Saint-Denis-en-Bugey, Sainte-Julie, Saint-Just, Saint-Germain-les-Paroisses, Saint-Jean-le-Vieux, Saint-Martin-de-Bavel, Saint-Martin-du-Mont, Saint-Rambert-en-Bugey, Saint-Sorlin-en-Bugey, Saint-Vulbas, Sault-Brénaz, Seillonnaz, Serrières-de-Briord, Serrières-sur-Ain, Seyssel, Songieu, Sonthonnax-la-Montagne, Souclin, Surjoux, Sutrieu, Talissieu, Tenay, Thézillieu, Torcieu, Tossiat, La Tranclière, Vaux-en-Bugey, Vieu, Vieu-d’Izenave, Villebois, Villereversure, Virieu-le-Grand, Virieu-le-Petit, Virignin et Vongnes. 
